--- a/data/trans_dic/P56$pareja-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$pareja-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 86,82</t>
+          <t>0,0; 88,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,58; 79,73</t>
+          <t>11,28; 75,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,62</t>
+          <t>0,0; 52,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +770,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 89,11</t>
+          <t>0,0; 89,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,91</t>
+          <t>0,0; 62,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,19; 55,39</t>
+          <t>13,63; 54,4</t>
         </is>
       </c>
     </row>
@@ -869,57 +870,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 88,87</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 80,82</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 55,59</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 44,41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 100,0</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 81,32</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>8,9; 58,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0; 44,41</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 44,75</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>0,0; 100,0</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0; 44,41</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 51,3</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 87,99</t>
-        </is>
-      </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 84,02</t>
+          <t>12,79; 82,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,75</t>
+          <t>0,0; 61,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,61; 42,49</t>
+          <t>11,63; 46,88</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,81; 86,24</t>
+          <t>14,75; 86,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,77; 85,98</t>
+          <t>13,64; 85,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,78; 76,27</t>
+          <t>23,02; 75,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,22; 63,91</t>
+          <t>22,98; 66,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,34</t>
+          <t>0,0; 37,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 27,16</t>
+          <t>4,09; 25,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,92; 59,88</t>
+          <t>8,04; 55,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 53,48</t>
+          <t>10,74; 52,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 52,23</t>
+          <t>12,3; 51,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,63; 40,13</t>
+          <t>14,86; 39,18</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,97; 56,64</t>
+          <t>21,19; 56,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 59,92</t>
+          <t>25,57; 60,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,95; 68,96</t>
+          <t>30,59; 66,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,42; 44,73</t>
+          <t>23,94; 45,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,31</t>
+          <t>0,0; 66,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 47,2</t>
+          <t>5,59; 48,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 63,91</t>
+          <t>10,21; 57,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 22,9</t>
+          <t>5,95; 23,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,73; 51,37</t>
+          <t>20,81; 50,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,03; 50,43</t>
+          <t>24,33; 50,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,56; 57,52</t>
+          <t>25,78; 57,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,53; 34,56</t>
+          <t>18,99; 35,24</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,17; 67,03</t>
+          <t>9,5; 69,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,43; 52,58</t>
+          <t>11,31; 52,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,92; 69,23</t>
+          <t>31,03; 67,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,85; 51,57</t>
+          <t>20,31; 51,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,2</t>
+          <t>0,0; 37,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 24,12</t>
+          <t>7,71; 23,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 22,79</t>
+          <t>2,51; 23,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,05; 23,25</t>
+          <t>12,02; 23,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 41,14</t>
+          <t>8,97; 40,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 26,64</t>
+          <t>9,98; 26,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,4; 37,23</t>
+          <t>16,42; 39,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,97; 26,28</t>
+          <t>15,47; 26,5</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 19,26</t>
+          <t>3,57; 18,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 22,53</t>
+          <t>7,56; 23,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 23,99</t>
+          <t>7,49; 22,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,92; 18,71</t>
+          <t>8,88; 18,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 19,26</t>
+          <t>3,57; 18,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 22,53</t>
+          <t>7,56; 23,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 23,99</t>
+          <t>7,49; 22,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,48; 17,86</t>
+          <t>9,06; 17,77</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,88; 54,29</t>
+          <t>28,42; 56,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,44; 55,7</t>
+          <t>30,3; 55,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,16; 59,75</t>
+          <t>36,82; 59,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,96; 43,14</t>
+          <t>27,41; 42,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,24; 20,78</t>
+          <t>6,22; 19,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,81; 19,78</t>
+          <t>9,61; 19,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,82; 20,84</t>
+          <t>8,9; 20,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,6; 18,07</t>
+          <t>11,71; 18,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,13; 29,62</t>
+          <t>15,67; 28,44</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,65; 27,96</t>
+          <t>17,67; 28,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,75; 30,37</t>
+          <t>19,19; 30,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,33; 23,95</t>
+          <t>17,59; 23,75</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda su pareja cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3177</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2441</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2573</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3043</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3177</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2441</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3528</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>762; 1769</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4222</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5724</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>646; 4316</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>291; 1274</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1448</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3043</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1692; 3043</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6662</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7091</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1575; 6288</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3361</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2615</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4253</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>187; 819</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5808</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3921</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>619; 4865</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1442</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3322</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>449; 3628</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4066</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1260; 8176</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5733</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1961; 7904</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2678</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5093</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5926</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2677</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4942</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5092</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8252</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>884; 5190</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>968; 6099</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2401; 7925</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3152; 9073</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1621</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3962</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1920</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>737; 4614</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>841; 5777</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1891; 9297</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2176; 9150</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4719; 12439</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11128</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17879</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11985</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16998</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1740</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7307</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3659</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12869</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22180</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19292</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20657</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6241; 16679</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10868; 25555</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7544; 16485</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12098; 23153</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4899</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1019; 8833</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2233; 12546</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1678; 6702</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7661; 18516</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14772; 30825</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11992; 26546</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14952; 27744</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12540</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6363</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9329</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3236</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14219</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5941</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14554</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15777</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20582</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>973; 7147</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2052; 9541</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7967; 17308</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3687; 9423</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6443</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5041; 15513</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>899; 8261</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9960; 19503</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2468; 11072</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>8335; 21965</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10086; 24210</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15621; 26757</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5607</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14016</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>13649</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13543</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5607</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>14016</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13649</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13543</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2142; 11317</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7838; 23951</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7208; 21870</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9167; 18782</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2142; 11317</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7838; 23951</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7208; 21870</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9545; 18728</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>20202</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>33638</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>33980</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>34475</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>10754</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>29704</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>24193</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36341</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>30956</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>63342</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>58173</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>70816</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13721; 27095</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>23790; 43266</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>26543; 42937</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>27145; 41782</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5814; 18067</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19627; 40634</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>15173; 35695</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>28825; 45023</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22230; 40330</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>49970; 80486</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>46572; 72838</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>60742; 82005</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P56$pareja-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$pareja-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
